--- a/excel/lab_data2.xlsx
+++ b/excel/lab_data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F2DE795A-1E65-E44C-8546-99AB27597124}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C4F5655-7E11-C342-A2AF-D1C24717868D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{5D6408A1-DF46-8548-8F75-512F23995FCC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{5D6408A1-DF46-8548-8F75-512F23995FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -182,23 +182,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>薬用植物園</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>育薬学</t>
     <rPh sb="0" eb="2">
       <t>イクヤk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医薬政策学</t>
-    <rPh sb="0" eb="2">
-      <t>イヤk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,23 +284,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>植物園</t>
-    <rPh sb="0" eb="1">
-      <t>ショk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>育薬</t>
     <rPh sb="0" eb="2">
       <t>イクヤk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>政策</t>
-    <rPh sb="0" eb="2">
-      <t>セイサk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -776,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD480F5-ED8D-A540-B25D-CBF49D8903B2}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -791,43 +763,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -838,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -861,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -884,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -907,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -930,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -953,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -976,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -999,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1022,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1068,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1091,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1114,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1137,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1160,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1183,7 +1155,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1206,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1229,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1252,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1275,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1298,7 +1270,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1321,64 +1293,18 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
         <v>1</v>
       </c>
     </row>
